--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2184,42 +2184,6 @@
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>SEB4 baseboard Diag 2013</t>
   </si>
   <si>
@@ -2257,6 +2221,42 @@
   </si>
   <si>
     <t>Run Measure 2</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6680,7 +6680,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6748,7 +6748,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6774,13 +6774,13 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D22" s="33"/>
     </row>
@@ -6951,7 +6951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
@@ -7499,10 +7499,10 @@
         <v>283</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>66</v>
@@ -7513,10 +7513,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>63</v>
@@ -7537,11 +7537,11 @@
         <v>1</v>
       </c>
       <c r="P25" s="37" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="Q25" s="38"/>
       <c r="R25" s="37" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7757,10 +7757,10 @@
         <v>666</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>66</v>
@@ -7771,10 +7771,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>63</v>
@@ -7795,11 +7795,11 @@
         <v>1</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="37" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8033,10 +8033,10 @@
         <v>671</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>66</v>
@@ -8047,10 +8047,10 @@
         <v>22</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>63</v>
@@ -8071,11 +8071,11 @@
         <v>1</v>
       </c>
       <c r="P48" s="37" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="Q48" s="38"/>
       <c r="R48" s="37" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -8590,9 +8590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8739,7 +8739,7 @@
       <c r="B5" s="40"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -8768,7 +8768,7 @@
       <c r="B6" s="40"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -8797,7 +8797,7 @@
       <c r="B7" s="40"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>641</v>
@@ -8825,7 +8825,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>641</v>
@@ -8853,7 +8853,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>641</v>
@@ -8881,7 +8881,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>641</v>
@@ -8909,7 +8909,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>641</v>
@@ -8937,7 +8937,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>641</v>
@@ -8965,7 +8965,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -8988,7 +8988,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -9011,7 +9011,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="741">
   <si>
     <t>type</t>
   </si>
@@ -2257,6 +2257,12 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Run Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -4286,7 +4292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4386,6 +4392,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6539,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6797,18 +6804,25 @@
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>740</v>
+      </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8590,7 +8604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2263,6 +2263,12 @@
   </si>
   <si>
     <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
   </si>
 </sst>
 </file>
@@ -4292,7 +4298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4392,7 +4398,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6547,7 +6552,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6816,13 +6821,25 @@
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
+      <c r="A25" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" s="28">
+        <v>1E+18</v>
+      </c>
       <c r="C25" s="29"/>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>740</v>
+      </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="744">
   <si>
     <t>type</t>
   </si>
@@ -2262,13 +2262,16 @@
     <t>Run Baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
     <t>Debug Messages</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
   </si>
 </sst>
 </file>
@@ -6552,7 +6555,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6816,29 +6819,31 @@
         <v>1</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B25" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="29" t="s">
+        <v>742</v>
+      </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B26" s="29">
         <v>0</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D26" s="33"/>
     </row>

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -6555,7 +6555,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6840,7 +6840,7 @@
         <v>741</v>
       </c>
       <c r="B26" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>743</v>

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$73</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6554,7 +6554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6985,11 +6985,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7508,150 +7508,152 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="b">
+      <c r="B23" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="37">
         <v>1</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>721</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>721</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="37">
+      <c r="K24" s="37">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
         <v>1</v>
       </c>
-      <c r="K25" s="37">
-        <v>0</v>
-      </c>
-      <c r="L25" s="37">
+      <c r="M24" s="37">
         <v>1</v>
       </c>
-      <c r="M25" s="37">
+      <c r="N24" s="37">
         <v>1</v>
       </c>
-      <c r="N25" s="37">
+      <c r="P24" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-80</v>
+      </c>
+      <c r="L26" s="3">
+        <v>80</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <f>(L26-K26)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O26" s="3">
         <v>1</v>
       </c>
-      <c r="P25" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>286</v>
+      <c r="R26" s="30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F27" s="50"/>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="I27" s="30">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-80</v>
-      </c>
-      <c r="L27" s="3">
-        <v>80</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <f>(L27-K27)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="30" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="F28" s="49"/>
       <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
@@ -7667,17 +7669,17 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I29" s="29">
         <v>0</v>
@@ -7688,19 +7690,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="I30" s="29">
+        <v>61</v>
+      </c>
+      <c r="I30" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7709,17 +7708,20 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="I31" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7727,176 +7729,173 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H33" s="29" t="s">
         <v>645</v>
       </c>
-      <c r="I32" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="29" t="s">
+      <c r="I33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>666</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="37">
+        <v>1</v>
+      </c>
+      <c r="K35" s="37">
+        <v>0</v>
+      </c>
+      <c r="L35" s="37">
+        <v>1</v>
+      </c>
+      <c r="M35" s="37">
+        <v>1</v>
+      </c>
+      <c r="N35" s="37">
+        <v>1</v>
+      </c>
+      <c r="P35" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H37" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="I33" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="I34" s="29">
+      <c r="I37" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N37" s="3">
+        <f>(L37-K37)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>666</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>722</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>722</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>726</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="37">
-        <v>1</v>
-      </c>
-      <c r="K36" s="37">
-        <v>0</v>
-      </c>
-      <c r="L36" s="37">
-        <v>1</v>
-      </c>
-      <c r="M36" s="37">
-        <v>1</v>
-      </c>
-      <c r="N36" s="37">
-        <v>1</v>
-      </c>
-      <c r="P36" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N38" s="3">
-        <f>(L38-K38)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="R38" s="30" t="s">
+      <c r="R37" s="30" t="s">
         <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7904,16 +7903,19 @@
         <v>21</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>347</v>
+        <v>642</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
     </row>
@@ -7922,10 +7924,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="29" t="s">
@@ -7943,40 +7945,37 @@
         <v>21</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I41" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F42" s="50"/>
       <c r="G42" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="I42" s="29">
+        <v>61</v>
+      </c>
+      <c r="I42" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7985,17 +7984,20 @@
         <v>21</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" s="50"/>
       <c r="G43" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="I43" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8003,20 +8005,20 @@
         <v>21</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I44" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8024,196 +8026,179 @@
         <v>21</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="50"/>
       <c r="G45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="I45" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="37">
+        <v>1</v>
+      </c>
+      <c r="K47" s="37">
+        <v>0</v>
+      </c>
+      <c r="L47" s="37">
+        <v>1</v>
+      </c>
+      <c r="M47" s="37">
+        <v>1</v>
+      </c>
+      <c r="N47" s="37">
+        <v>1</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>674</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H48" s="43" t="s">
         <v>641</v>
       </c>
-      <c r="I45" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="I46" s="29">
+      <c r="I48" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="b">
+      <c r="J48" s="45"/>
+      <c r="K48" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="44">
         <v>1</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>671</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>723</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>723</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>724</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="37">
+      <c r="M48" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="N48" s="44">
+        <f>(L48-K48)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O48" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="R48" s="37" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="I49" s="30">
+        <v>1450</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1450</v>
+      </c>
+      <c r="N49" s="3">
+        <f>(L49-K49)/6</f>
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>10</v>
+      </c>
+      <c r="R49" s="30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="37">
-        <v>0</v>
-      </c>
-      <c r="L48" s="37">
-        <v>1</v>
-      </c>
-      <c r="M48" s="37">
-        <v>1</v>
-      </c>
-      <c r="N48" s="37">
-        <v>1</v>
-      </c>
-      <c r="P48" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>672</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>641</v>
-      </c>
-      <c r="I49" s="43">
-        <v>1</v>
-      </c>
-      <c r="J49" s="45"/>
-      <c r="K49" s="44">
-        <v>0.9</v>
-      </c>
-      <c r="L49" s="44">
-        <v>1</v>
-      </c>
-      <c r="M49" s="44">
-        <v>0.95</v>
-      </c>
-      <c r="N49" s="44">
-        <f>(L49-K49)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O49" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="R49" s="37" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="I50" s="30">
-        <v>1450</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M50" s="3">
-        <v>1450</v>
-      </c>
-      <c r="N50" s="3">
-        <f>(L50-K50)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O50" s="3">
-        <v>10</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>711</v>
-      </c>
+      <c r="B50" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="F51" s="40"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F52" s="40"/>
@@ -8251,7 +8236,6 @@
       <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F59" s="40"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
     </row>
@@ -8603,12 +8587,8 @@
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA74"/>
+  <autoFilter ref="A2:AA73"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_Diag_2013.xlsx
+++ b/projects/SEB_Diag_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2178,9 +2178,6 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
@@ -2223,42 +2220,6 @@
     <t>Run Measure 2</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Run Baseline</t>
   </si>
   <si>
@@ -2272,6 +2233,45 @@
   </si>
   <si>
     <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6554,21 +6554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6608,18 +6608,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6690,18 +6690,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6758,19 +6758,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6787,19 +6787,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>717</v>
-      </c>
       <c r="C22" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
@@ -6811,80 +6811,80 @@
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B24" s="29">
         <v>1</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B25" s="28">
         <v>1E+18</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B26" s="29">
         <v>1</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="28"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="B33" s="28"/>
       <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="B34" s="28"/>
       <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="30" customFormat="1">
       <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="30" customFormat="1">
       <c r="B43" s="25"/>
       <c r="D43" s="2"/>
     </row>
@@ -6974,7 +6974,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6987,37 +6986,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7053,7 +7052,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7070,7 +7069,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7166,7 +7165,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7185,7 +7184,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7204,7 +7203,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7223,7 +7222,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7241,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7261,7 +7260,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7280,7 +7279,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7299,7 +7298,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7318,7 +7317,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7337,7 +7336,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7356,7 +7355,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7375,7 +7374,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7394,7 +7393,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7413,7 +7412,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7432,7 +7431,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7450,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7470,7 +7469,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7489,7 +7488,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="39" customFormat="1">
       <c r="A23" s="39" t="b">
         <v>1</v>
       </c>
@@ -7516,24 +7515,24 @@
         <v>283</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="37" customFormat="1">
       <c r="B24" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>63</v>
@@ -7554,14 +7553,14 @@
         <v>1</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B25" s="29" t="s">
         <v>21</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B27" s="29" t="s">
         <v>21</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7774,24 +7773,24 @@
         <v>666</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="37" customFormat="1">
       <c r="B35" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>63</v>
@@ -7812,14 +7811,14 @@
         <v>1</v>
       </c>
       <c r="P35" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B36" s="29" t="s">
         <v>21</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="B37" s="30" t="s">
         <v>21</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="29" customFormat="1">
       <c r="B38" s="29" t="s">
         <v>21</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" s="29" customFormat="1">
       <c r="B39" s="29" t="s">
         <v>21</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="29" customFormat="1">
       <c r="B40" s="29" t="s">
         <v>21</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="29" customFormat="1">
       <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B42" s="29" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B43" s="29" t="s">
         <v>21</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B45" s="29" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="39" t="b">
         <v>1</v>
       </c>
@@ -8050,24 +8049,24 @@
         <v>671</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="37" customFormat="1">
       <c r="B47" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>63</v>
@@ -8088,14 +8087,14 @@
         <v>1</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="37" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="43" customFormat="1">
       <c r="B48" s="43" t="s">
         <v>21</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15">
       <c r="B49" s="30" t="s">
         <v>21</v>
       </c>
@@ -8176,7 +8175,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="35" customFormat="1">
       <c r="A50" s="35" t="b">
         <v>1</v>
       </c>
@@ -8184,10 +8183,10 @@
         <v>710</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>231</v>
@@ -8195,395 +8194,395 @@
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="F51" s="40"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="F52" s="40"/>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="F53" s="40"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="F54" s="40"/>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="F55" s="40"/>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="F56" s="40"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="F57" s="40"/>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="F58" s="40"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="I63" s="30"/>
       <c r="J63" s="30"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:10">
       <c r="I65" s="30"/>
       <c r="J65" s="30"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:10">
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:10">
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:10">
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:10">
       <c r="I69" s="30"/>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:10">
       <c r="I70" s="30"/>
       <c r="J70" s="30"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:10">
       <c r="I71" s="30"/>
       <c r="J71" s="30"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:10">
       <c r="I72" s="30"/>
       <c r="J72" s="30"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:10">
       <c r="I73" s="30"/>
       <c r="J73" s="30"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:10">
       <c r="I74" s="30"/>
       <c r="J74" s="30"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:10">
       <c r="I75" s="30"/>
       <c r="J75" s="30"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:10">
       <c r="I76" s="30"/>
       <c r="J76" s="30"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:10">
       <c r="I77" s="30"/>
       <c r="J77" s="30"/>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:10">
       <c r="I78" s="30"/>
       <c r="J78" s="30"/>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:10">
       <c r="I79" s="30"/>
       <c r="J79" s="30"/>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:10">
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:10">
       <c r="I81" s="30"/>
       <c r="J81" s="30"/>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:10">
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:10">
       <c r="I83" s="30"/>
       <c r="J83" s="30"/>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:10">
       <c r="I84" s="30"/>
       <c r="J84" s="30"/>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:10">
       <c r="I85" s="30"/>
       <c r="J85" s="30"/>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:10">
       <c r="I86" s="30"/>
       <c r="J86" s="30"/>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:10">
       <c r="I87" s="30"/>
       <c r="J87" s="30"/>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:10">
       <c r="I88" s="30"/>
       <c r="J88" s="30"/>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:10">
       <c r="I89" s="30"/>
       <c r="J89" s="30"/>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:10">
       <c r="I90" s="30"/>
       <c r="J90" s="30"/>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:10">
       <c r="I91" s="30"/>
       <c r="J91" s="30"/>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:10">
       <c r="I92" s="30"/>
       <c r="J92" s="30"/>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:10">
       <c r="I93" s="30"/>
       <c r="J93" s="30"/>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:10">
       <c r="I94" s="30"/>
       <c r="J94" s="30"/>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:10">
       <c r="I95" s="30"/>
       <c r="J95" s="30"/>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:10">
       <c r="I96" s="30"/>
       <c r="J96" s="30"/>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10">
       <c r="I97" s="30"/>
       <c r="J97" s="30"/>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10">
       <c r="I98" s="30"/>
       <c r="J98" s="30"/>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10">
       <c r="I99" s="30"/>
       <c r="J99" s="30"/>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10">
       <c r="I100" s="30"/>
       <c r="J100" s="30"/>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10">
       <c r="I101" s="30"/>
       <c r="J101" s="30"/>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10">
       <c r="I102" s="30"/>
       <c r="J102" s="30"/>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10">
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10">
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10">
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10">
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:10">
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:10">
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:10">
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:10">
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10">
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
@@ -8593,7 +8592,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8608,25 +8606,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="46"/>
       <c r="C1" s="5"/>
@@ -8642,7 +8640,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -8680,7 +8678,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="75">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -8719,7 +8717,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -8748,14 +8746,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -8777,14 +8775,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -8806,14 +8804,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>650</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>641</v>
@@ -8834,14 +8832,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>651</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>641</v>
@@ -8862,14 +8860,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>652</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>641</v>
@@ -8890,14 +8888,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>653</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>641</v>
@@ -8918,14 +8916,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>654</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>641</v>
@@ -8946,14 +8944,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>655</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>641</v>
@@ -8974,14 +8972,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>662</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -8997,14 +8995,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>663</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -9020,14 +9018,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>664</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -9043,13 +9041,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -9064,180 +9062,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9254,19 +9251,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9285,7 +9282,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -9306,7 +9303,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -9329,7 +9326,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -9352,7 +9349,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -9375,7 +9372,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -9398,7 +9395,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -9421,7 +9418,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -9444,7 +9441,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -9467,7 +9464,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -9490,7 +9487,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -9509,7 +9506,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -9530,7 +9527,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -9553,7 +9550,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -9576,7 +9573,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -9599,7 +9596,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -9622,7 +9619,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -9645,7 +9642,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -9668,7 +9665,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -9691,7 +9688,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -9714,7 +9711,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -9733,7 +9730,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -9756,7 +9753,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -9779,7 +9776,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -9802,7 +9799,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -9825,7 +9822,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -9848,7 +9845,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -9871,7 +9868,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -9894,7 +9891,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -9917,7 +9914,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -9940,7 +9937,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -9959,7 +9956,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -9980,7 +9977,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10003,7 +10000,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10026,7 +10023,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10049,7 +10046,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10072,7 +10069,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10095,7 +10092,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10118,7 +10115,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10141,7 +10138,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10164,7 +10161,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10183,7 +10180,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10204,7 +10201,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10227,7 +10224,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10250,7 +10247,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10273,7 +10270,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10296,7 +10293,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -10319,7 +10316,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -10342,7 +10339,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -10365,7 +10362,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -10388,7 +10385,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -10407,7 +10404,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -10428,7 +10425,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -10451,7 +10448,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -10474,7 +10471,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -10497,7 +10494,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -10520,7 +10517,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -10543,7 +10540,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -10566,7 +10563,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -10589,7 +10586,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -10612,7 +10609,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -10631,7 +10628,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -10652,7 +10649,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -10677,7 +10674,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -10700,7 +10697,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -10723,7 +10720,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -10746,7 +10743,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -10769,7 +10766,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -10792,7 +10789,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -10815,7 +10812,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -10838,7 +10835,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -10861,7 +10858,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -10880,7 +10877,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -10901,7 +10898,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -10924,7 +10921,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -10949,7 +10946,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -10972,7 +10969,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -10995,7 +10992,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11018,7 +11015,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11041,7 +11038,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11064,7 +11061,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11087,7 +11084,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11110,7 +11107,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11133,7 +11130,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11156,7 +11153,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11179,7 +11176,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11198,7 +11195,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11221,7 +11218,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11244,7 +11241,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11267,7 +11264,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11290,7 +11287,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -11313,7 +11310,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -11336,7 +11333,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -11359,7 +11356,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -11382,7 +11379,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -11405,7 +11402,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -11428,7 +11425,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -11447,7 +11444,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11469,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -11491,7 +11488,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -11512,7 +11509,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -11537,7 +11534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -11556,7 +11553,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11576,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -11604,7 +11601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -11627,7 +11624,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11645,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -11667,7 +11664,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -11692,7 +11689,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -11715,7 +11712,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -11738,7 +11735,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -11761,7 +11758,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -11784,7 +11781,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -11807,7 +11804,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -11830,7 +11827,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -11849,7 +11846,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11869,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -11895,7 +11892,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -11918,7 +11915,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -11937,7 +11934,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -11960,7 +11957,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -11983,7 +11980,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12003,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12026,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12049,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12072,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12094,7 +12091,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12119,7 +12116,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12142,7 +12139,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12165,7 +12162,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12188,7 +12185,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12211,7 +12208,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12234,7 +12231,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12254,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12277,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12300,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -12322,7 +12319,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -12347,7 +12344,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -12368,7 +12365,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -12391,7 +12388,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -12414,7 +12411,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -12437,7 +12434,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -12460,7 +12457,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -12483,7 +12480,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -12506,7 +12503,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12526,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12549,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12572,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12595,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12618,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12641,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -12663,7 +12660,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -12686,7 +12683,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -12705,7 +12702,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -12728,7 +12725,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -12751,7 +12748,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -12770,7 +12767,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -12795,7 +12792,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -12818,7 +12815,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -12841,7 +12838,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -12864,7 +12861,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -12887,7 +12884,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -12910,7 +12907,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -12933,7 +12930,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -12956,7 +12953,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -12979,7 +12976,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13002,7 +12999,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13021,7 +13018,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13046,7 +13043,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13069,7 +13066,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13089,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13115,7 +13112,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13135,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13161,7 +13158,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13181,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13204,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13230,7 +13227,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13253,7 +13250,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13272,7 +13269,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13295,7 +13292,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13315,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -13341,7 +13338,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -13364,7 +13361,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -13383,7 +13380,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -13406,7 +13403,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -13429,7 +13426,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13449,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13472,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -13494,7 +13491,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -13515,7 +13512,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -13538,7 +13535,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -13557,7 +13554,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -13580,7 +13577,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -13605,7 +13602,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -13626,7 +13623,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -13651,7 +13648,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13673,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -13695,7 +13692,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -13720,7 +13717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -13743,7 +13740,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -13766,7 +13763,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -13789,7 +13786,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -13812,7 +13809,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -13835,7 +13832,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13855,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13878,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13901,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -13923,7 +13920,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -13948,7 +13945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -13971,7 +13968,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -13994,7 +13991,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14014,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14037,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14060,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14083,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14106,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14129,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14151,7 +14148,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14172,7 +14169,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14195,7 +14192,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14215,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14238,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14264,7 +14261,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14287,7 +14284,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -14310,7 +14307,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -14333,7 +14330,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -14356,7 +14353,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -14379,7 +14376,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -14402,7 +14399,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -14425,7 +14422,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -14448,7 +14445,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -14471,7 +14468,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -14494,7 +14491,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -14517,7 +14514,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -14536,7 +14533,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -14557,7 +14554,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -14580,7 +14577,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -14603,7 +14600,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14623,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14646,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14669,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14692,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14715,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14738,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14761,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14784,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14807,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -14833,7 +14830,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -14856,7 +14853,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -14879,7 +14876,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -14902,7 +14899,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -14921,7 +14918,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -14946,7 +14943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -14969,7 +14966,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -14992,7 +14989,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15015,7 +15012,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15038,7 +15035,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15057,7 +15054,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15082,7 +15079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15105,7 +15102,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15124,7 +15121,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15143,7 +15140,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15162,7 +15159,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15183,7 +15180,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15206,7 +15203,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15229,7 +15226,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15252,7 +15249,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15275,7 +15272,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -15298,7 +15295,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -15321,7 +15318,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -15344,7 +15341,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -15367,7 +15364,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -15390,7 +15387,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -15413,7 +15410,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -15432,7 +15429,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -15455,7 +15452,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -15474,7 +15471,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -15499,7 +15496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -15522,7 +15519,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -15545,7 +15542,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -15568,7 +15565,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -15591,7 +15588,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -15614,7 +15611,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -15637,7 +15634,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -15660,7 +15657,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -15683,7 +15680,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -15706,7 +15703,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -15729,7 +15726,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -15748,7 +15745,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -15771,7 +15768,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -15790,7 +15787,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -15811,7 +15808,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -15830,7 +15827,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -15851,7 +15848,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -15870,7 +15867,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -15891,7 +15888,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -15910,7 +15907,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -15933,7 +15930,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -15952,7 +15949,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -15977,7 +15974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16000,7 +15997,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16023,7 +16020,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16046,7 +16043,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16069,7 +16066,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16092,7 +16089,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16115,7 +16112,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16138,7 +16135,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16161,7 +16158,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16180,7 +16177,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16203,7 +16200,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16226,7 +16223,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16249,7 +16246,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16272,7 +16269,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16291,7 +16288,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16311,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16334,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -16362,7 +16359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -16381,7 +16378,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16426,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -16448,7 +16445,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -16469,7 +16466,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -16490,7 +16487,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -16513,7 +16510,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -16532,7 +16529,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -16551,7 +16548,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -16576,7 +16573,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -16601,7 +16598,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -16615,7 +16612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -16638,7 +16635,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -16658,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -16678,7 +16675,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -16698,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -16715,7 +16712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -16738,7 +16735,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -16761,7 +16758,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16775,7 +16772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -16798,7 +16795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -16821,7 +16818,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -16841,7 +16838,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -16861,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -16904,7 +16901,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -16933,7 +16930,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -16972,7 +16969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -16986,7 +16983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -17006,7 +17003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17020,7 +17017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17040,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17060,7 +17057,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17080,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17100,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17120,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17140,7 +17137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17160,7 +17157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -17180,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -17200,7 +17197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -17214,7 +17211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -17234,7 +17231,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -17254,7 +17251,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -17270,7 +17267,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -17296,7 +17293,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -17337,7 +17334,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -17351,7 +17348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -17371,7 +17368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -17385,7 +17382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -17407,7 +17404,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17424,17 +17420,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -17445,7 +17441,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -17459,7 +17455,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -17473,7 +17469,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -17487,7 +17483,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -17515,7 +17511,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -17529,7 +17525,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -17543,7 +17539,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -17557,7 +17553,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -17571,7 +17567,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -17585,7 +17581,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -17596,8 +17592,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -17623,7 +17619,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -17664,7 +17660,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -17705,7 +17701,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -17737,7 +17733,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -17769,7 +17765,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -17798,7 +17794,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -17830,7 +17826,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -17850,7 +17846,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -17873,7 +17869,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -17884,7 +17880,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -17892,7 +17888,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -17905,7 +17901,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
